--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3994.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3994.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.35814642083656</v>
+        <v>1.095157742500305</v>
       </c>
       <c r="B1">
-        <v>2.555591814835907</v>
+        <v>2.995087623596191</v>
       </c>
       <c r="C1">
-        <v>3.413351912195042</v>
+        <v>6.420498847961426</v>
       </c>
       <c r="D1">
-        <v>4.047739429582183</v>
+        <v>4.179830074310303</v>
       </c>
       <c r="E1">
-        <v>1.594577064090746</v>
+        <v>1.345168828964233</v>
       </c>
     </row>
   </sheetData>
